--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workstation\Django\Django_ChatBot\media\read_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20616" yWindow="12" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,12 +381,6 @@
     <t>Lastly, please provide us with your city address</t>
   </si>
   <si>
-    <t>Yes.png&gt;Yes, 100</t>
-  </si>
-  <si>
-    <t>No.png&gt;No, 100</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=0LdksJKHzMo&gt;Under NAC, 100</t>
   </si>
   <si>
@@ -1004,12 +1003,18 @@
   </si>
   <si>
     <t>Is this multi-person claim?</t>
+  </si>
+  <si>
+    <t>Yes.PNG&gt;Yes, 100</t>
+  </si>
+  <si>
+    <t>No.PNG&gt;No, 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1840,7 +1845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1850,83 +1855,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:H253"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
-    <col min="4" max="4" width="53.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1935,7 +1940,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -1945,7 +1950,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -1955,7 +1960,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="B13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1964,7 +1969,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1">
       <c r="A15" s="29" t="s">
         <v>93</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="16" spans="1:8" ht="30.75" thickBot="1">
       <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>26</v>
@@ -2030,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="30.75" thickBot="1">
       <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>32</v>
@@ -2052,7 +2057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1">
+    <row r="18" spans="1:9" ht="30.75" thickBot="1">
       <c r="A18" s="30"/>
       <c r="B18" s="21" t="s">
         <v>39</v>
@@ -2071,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:9" ht="30.75" thickBot="1">
       <c r="A19" s="30"/>
       <c r="B19" s="21" t="s">
         <v>41</v>
@@ -2090,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:9" ht="30.75" thickBot="1">
       <c r="A20" s="30"/>
       <c r="B20" s="21" t="s">
         <v>43</v>
@@ -2111,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="30.75" thickBot="1">
       <c r="A21" s="30" t="s">
         <v>94</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="30"/>
       <c r="B22" s="21"/>
       <c r="D22" s="6"/>
@@ -2148,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
       <c r="D23" s="6"/>
@@ -2162,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="29"/>
       <c r="B24" s="21"/>
       <c r="D24" s="6"/>
@@ -2176,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="30" t="s">
         <v>95</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="30"/>
       <c r="D26" s="6"/>
       <c r="F26" t="s">
@@ -2212,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="30"/>
       <c r="D27" s="6"/>
       <c r="F27" t="s">
@@ -2225,7 +2230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="30"/>
       <c r="D28" s="6"/>
       <c r="F28" t="s">
@@ -2238,7 +2243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="30"/>
       <c r="D29" s="6"/>
       <c r="F29" t="s">
@@ -2251,7 +2256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="30"/>
       <c r="D30" s="6"/>
       <c r="F30" t="s">
@@ -2264,7 +2269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="30"/>
       <c r="D31" s="6"/>
       <c r="F31" t="s">
@@ -2277,7 +2282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="30"/>
       <c r="D32" s="6"/>
       <c r="F32" t="s">
@@ -2290,7 +2295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="30" t="s">
         <v>96</v>
       </c>
@@ -2307,26 +2312,26 @@
         <v>22</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="H33" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="30"/>
       <c r="D34" s="7"/>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>59</v>
@@ -2347,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="30"/>
       <c r="D36" s="7"/>
       <c r="F36" t="s">
@@ -2360,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="30"/>
       <c r="D37" s="7"/>
       <c r="F37" t="s">
@@ -2373,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="30"/>
       <c r="B38" t="s">
         <v>63</v>
@@ -2394,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="30"/>
       <c r="D39" s="7"/>
       <c r="F39" t="s">
@@ -2407,7 +2412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="29"/>
       <c r="D40" s="7"/>
       <c r="F40" t="s">
@@ -2420,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="30"/>
       <c r="D41" s="7"/>
       <c r="F41" t="s">
@@ -2433,7 +2438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43.8" thickBot="1">
+    <row r="42" spans="1:8" ht="45.75" thickBot="1">
       <c r="A42" s="30"/>
       <c r="B42" t="s">
         <v>65</v>
@@ -2448,26 +2453,26 @@
         <v>22</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.8" thickBot="1">
+    <row r="43" spans="1:8" ht="45.75" thickBot="1">
       <c r="A43" s="30"/>
       <c r="D43" s="7"/>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="30"/>
       <c r="B44" t="s">
         <v>67</v>
@@ -2486,13 +2491,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" t="s">
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>44</v>
@@ -2510,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="30"/>
       <c r="D46" s="7"/>
       <c r="F46" t="s">
@@ -2523,7 +2528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="30"/>
       <c r="B47" t="s">
         <v>71</v>
@@ -2544,7 +2549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="30"/>
       <c r="D48" s="7"/>
       <c r="F48" t="s">
@@ -2557,7 +2562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="30"/>
       <c r="D49" s="7"/>
       <c r="F49" t="s">
@@ -2570,7 +2575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="30"/>
       <c r="D50" s="7"/>
       <c r="F50" t="s">
@@ -2583,7 +2588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="30"/>
       <c r="B51" t="s">
         <v>72</v>
@@ -2604,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="30"/>
       <c r="D52" s="7"/>
       <c r="F52" t="s">
@@ -2617,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="30"/>
       <c r="B53" t="s">
         <v>74</v>
@@ -2638,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="30"/>
       <c r="D54" s="7"/>
       <c r="F54" t="s">
@@ -2651,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="30"/>
       <c r="B55" t="s">
         <v>76</v>
@@ -2672,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="30"/>
       <c r="D56" s="7"/>
       <c r="F56" t="s">
@@ -2685,7 +2690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="30"/>
       <c r="D57" s="7"/>
       <c r="F57" t="s">
@@ -2698,7 +2703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" t="s">
         <v>77</v>
@@ -2719,7 +2724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="30"/>
       <c r="D59" s="7"/>
       <c r="F59" t="s">
@@ -2732,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" t="s">
         <v>78</v>
@@ -2753,7 +2758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="30"/>
       <c r="D61" s="7"/>
       <c r="F61" t="s">
@@ -2766,7 +2771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="30"/>
       <c r="B62" t="s">
         <v>79</v>
@@ -2787,7 +2792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
       <c r="A63" s="30"/>
       <c r="C63" s="8"/>
       <c r="D63" s="7"/>
@@ -2801,7 +2806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
         <v>80</v>
@@ -2822,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1">
       <c r="A65" s="30"/>
       <c r="D65" s="7"/>
       <c r="F65" t="s">
@@ -2835,16 +2840,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="30"/>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>3</v>
@@ -2859,7 +2864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="30"/>
       <c r="D67" s="7"/>
       <c r="F67" t="s">
@@ -2872,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="30"/>
       <c r="B68" t="s">
         <v>82</v>
@@ -2893,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
       <c r="A69" s="30"/>
       <c r="D69" s="7"/>
       <c r="F69" t="s">
@@ -2906,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="30"/>
       <c r="B70" t="s">
         <v>83</v>
@@ -2938,22 +2943,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="H72" s="2">
         <v>27</v>
@@ -2975,10 +2980,10 @@
     <row r="74" spans="1:8">
       <c r="A74" s="30"/>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3009,10 +3014,10 @@
     <row r="76" spans="1:8">
       <c r="A76" s="30"/>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3043,10 +3048,10 @@
     <row r="78" spans="1:8">
       <c r="A78" s="30"/>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3077,10 +3082,10 @@
     <row r="80" spans="1:8">
       <c r="A80" s="30"/>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3096,10 +3101,10 @@
     <row r="81" spans="1:8">
       <c r="A81" s="30"/>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3147,7 +3152,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H84" s="2">
         <v>32</v>
@@ -3156,19 +3161,19 @@
     <row r="85" spans="1:8">
       <c r="A85" s="30"/>
       <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="H85" s="2">
         <v>33</v>
@@ -3181,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H86" s="2">
         <v>33</v>
@@ -3190,10 +3195,10 @@
     <row r="87" spans="1:8">
       <c r="A87" s="30"/>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3224,19 +3229,19 @@
     <row r="89" spans="1:8">
       <c r="A89" s="30"/>
       <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="H89" s="2">
         <v>35</v>
@@ -3249,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H90" s="2">
         <v>35</v>
@@ -3262,16 +3267,16 @@
         <v>30</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H91" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="28.8">
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="30"/>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>48</v>
@@ -3283,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H92" s="2">
         <v>36</v>
@@ -3296,20 +3301,20 @@
         <v>24</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28.8">
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" s="30"/>
       <c r="D94" s="9"/>
       <c r="F94" t="s">
         <v>30</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H94" s="2">
         <v>36</v>
@@ -3318,10 +3323,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="30"/>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3352,10 +3357,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="30"/>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3386,10 +3391,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="30"/>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -3420,10 +3425,10 @@
     <row r="101" spans="1:8">
       <c r="A101" s="30"/>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -3449,13 +3454,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B103" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -3486,10 +3491,10 @@
     <row r="105" spans="1:8">
       <c r="A105" s="30"/>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -3520,19 +3525,19 @@
     <row r="107" spans="1:8">
       <c r="A107" s="30"/>
       <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="H107" s="2">
         <v>43</v>
@@ -3545,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H108" s="2">
         <v>43</v>
@@ -3558,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H109" s="2">
         <v>43</v>
@@ -3571,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H110" s="2">
         <v>43</v>
@@ -3584,7 +3589,7 @@
         <v>84</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H111" s="2">
         <v>43</v>
@@ -3597,7 +3602,7 @@
         <v>85</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H112" s="2">
         <v>43</v>
@@ -3610,7 +3615,7 @@
         <v>86</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H113" s="2">
         <v>43</v>
@@ -3623,7 +3628,7 @@
         <v>87</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H114" s="2">
         <v>43</v>
@@ -3633,10 +3638,10 @@
       <c r="A115" s="30"/>
       <c r="D115" s="13"/>
       <c r="F115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H115" s="2">
         <v>43</v>
@@ -3645,19 +3650,19 @@
     <row r="116" spans="1:8">
       <c r="A116" s="30"/>
       <c r="B116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="H116" s="2">
         <v>44</v>
@@ -3679,19 +3684,19 @@
     <row r="118" spans="1:8">
       <c r="A118" s="30"/>
       <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="H118" s="2">
         <v>45</v>
@@ -3704,7 +3709,7 @@
         <v>24</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H119" s="2">
         <v>45</v>
@@ -3717,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H120" s="2">
         <v>45</v>
@@ -3726,10 +3731,10 @@
     <row r="121" spans="1:8">
       <c r="A121" s="30"/>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -3760,10 +3765,10 @@
     <row r="123" spans="1:8">
       <c r="A123" s="30"/>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3794,10 +3799,10 @@
     <row r="125" spans="1:8">
       <c r="A125" s="29"/>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -3828,10 +3833,10 @@
     <row r="127" spans="1:8">
       <c r="A127" s="30"/>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -3862,10 +3867,10 @@
     <row r="129" spans="1:8">
       <c r="A129" s="30"/>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -3896,10 +3901,10 @@
     <row r="131" spans="1:8">
       <c r="A131" s="30"/>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3930,10 +3935,10 @@
     <row r="133" spans="1:8">
       <c r="A133" s="30"/>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3964,10 +3969,10 @@
     <row r="135" spans="1:8">
       <c r="A135" s="30"/>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -3998,10 +4003,10 @@
     <row r="137" spans="1:8">
       <c r="A137" s="30"/>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4027,13 +4032,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="B139" t="s">
-        <v>203</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4064,10 +4069,10 @@
     <row r="141" spans="1:8">
       <c r="A141" s="30"/>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4098,19 +4103,19 @@
     <row r="143" spans="1:8">
       <c r="A143" s="30"/>
       <c r="B143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="H143" s="2">
         <v>57</v>
@@ -4123,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H144" s="2">
         <v>57</v>
@@ -4136,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H145" s="2">
         <v>57</v>
@@ -4149,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H146" s="2">
         <v>57</v>
@@ -4158,10 +4163,10 @@
     <row r="147" spans="1:8">
       <c r="A147" s="30"/>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4192,10 +4197,10 @@
     <row r="149" spans="1:8">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4226,19 +4231,19 @@
     <row r="151" spans="1:8">
       <c r="A151" s="30"/>
       <c r="B151" t="s">
+        <v>215</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -4249,7 +4254,7 @@
         <v>24</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H152" s="2"/>
     </row>
@@ -4260,19 +4265,19 @@
         <v>30</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="B154" t="s">
-        <v>223</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4303,10 +4308,10 @@
     <row r="156" spans="1:8">
       <c r="A156" s="30"/>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -4315,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H156" s="2">
         <v>62</v>
@@ -4337,10 +4342,10 @@
     <row r="158" spans="1:8">
       <c r="A158" s="30"/>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4371,10 +4376,10 @@
     <row r="160" spans="1:8">
       <c r="A160" s="30"/>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4405,7 +4410,7 @@
     <row r="162" spans="1:8">
       <c r="A162" s="30"/>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>66</v>
@@ -4439,10 +4444,10 @@
     <row r="164" spans="1:8">
       <c r="A164" s="30"/>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4473,10 +4478,10 @@
     <row r="166" spans="1:8">
       <c r="A166" s="30"/>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4507,10 +4512,10 @@
     <row r="168" spans="1:8">
       <c r="A168" s="30"/>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4541,10 +4546,10 @@
     <row r="170" spans="1:8">
       <c r="A170" s="30"/>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4575,10 +4580,10 @@
     <row r="172" spans="1:8">
       <c r="A172" s="29"/>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4609,10 +4614,10 @@
     <row r="174" spans="1:8">
       <c r="A174" s="30"/>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4643,10 +4648,10 @@
     <row r="176" spans="1:8">
       <c r="A176" s="30"/>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4677,10 +4682,10 @@
     <row r="178" spans="1:8">
       <c r="A178" s="30"/>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4711,10 +4716,10 @@
     <row r="180" spans="1:8">
       <c r="A180" s="30"/>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4745,10 +4750,10 @@
     <row r="182" spans="1:8">
       <c r="A182" s="30"/>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4774,13 +4779,13 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B184" t="s">
+        <v>251</v>
+      </c>
+      <c r="D184" s="16" t="s">
         <v>252</v>
-      </c>
-      <c r="B184" t="s">
-        <v>253</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4811,19 +4816,19 @@
     <row r="186" spans="1:8">
       <c r="A186" s="30"/>
       <c r="B186" t="s">
+        <v>253</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="E186" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>257</v>
       </c>
       <c r="H186" s="2">
         <v>77</v>
@@ -4836,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H187" s="2">
         <v>77</v>
@@ -4845,10 +4850,10 @@
     <row r="188" spans="1:8">
       <c r="A188" s="30"/>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4879,10 +4884,10 @@
     <row r="190" spans="1:8">
       <c r="A190" s="30"/>
       <c r="B190" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -4891,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H190" s="2">
         <v>79</v>
@@ -4913,19 +4918,19 @@
     <row r="192" spans="1:8">
       <c r="A192" s="30"/>
       <c r="B192" t="s">
+        <v>261</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="H192" s="2">
         <v>80</v>
@@ -4938,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H193" s="2">
         <v>80</v>
@@ -4947,10 +4952,10 @@
     <row r="194" spans="1:8">
       <c r="A194" s="30"/>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -4981,10 +4986,10 @@
     <row r="196" spans="1:8">
       <c r="A196" s="30"/>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -5004,19 +5009,19 @@
         <v>24</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" t="s">
+        <v>270</v>
+      </c>
+      <c r="D198" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B198" t="s">
-        <v>272</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -5047,19 +5052,19 @@
     <row r="200" spans="1:8">
       <c r="A200" s="30"/>
       <c r="B200" t="s">
+        <v>272</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>274</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E200" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="H200" s="2">
         <v>84</v>
@@ -5072,7 +5077,7 @@
         <v>24</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H201" s="2">
         <v>84</v>
@@ -5081,10 +5086,10 @@
     <row r="202" spans="1:8">
       <c r="A202" s="29"/>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -5093,7 +5098,7 @@
         <v>22</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H202" s="2">
         <v>85</v>
@@ -5106,7 +5111,7 @@
         <v>24</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H203" s="2">
         <v>85</v>
@@ -5115,10 +5120,10 @@
     <row r="204" spans="1:8">
       <c r="A204" s="30"/>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5149,10 +5154,10 @@
     <row r="206" spans="1:8">
       <c r="A206" s="30"/>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5161,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H206" s="2">
         <v>87</v>
@@ -5183,10 +5188,10 @@
     <row r="208" spans="1:8">
       <c r="A208" s="30"/>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -5195,7 +5200,7 @@
         <v>22</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H208" s="2">
         <v>88</v>
@@ -5208,7 +5213,7 @@
         <v>24</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H209" s="2">
         <v>88</v>
@@ -5217,10 +5222,10 @@
     <row r="210" spans="1:8">
       <c r="A210" s="30"/>
       <c r="B210" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5251,10 +5256,10 @@
     <row r="212" spans="1:8">
       <c r="A212" s="30"/>
       <c r="B212" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5280,13 +5285,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B214" t="s">
+        <v>283</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="B214" t="s">
-        <v>285</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5317,10 +5322,10 @@
     <row r="216" spans="1:8">
       <c r="A216" s="30"/>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5351,10 +5356,10 @@
     <row r="218" spans="1:8">
       <c r="A218" s="30"/>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5385,10 +5390,10 @@
     <row r="220" spans="1:8">
       <c r="A220" s="30"/>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5397,7 +5402,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H220" s="2">
         <v>94</v>
@@ -5419,10 +5424,10 @@
     <row r="222" spans="1:8">
       <c r="A222" s="30"/>
       <c r="B222" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5453,19 +5458,19 @@
     <row r="224" spans="1:8">
       <c r="A224" s="30"/>
       <c r="B224" t="s">
+        <v>292</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E224" t="s">
-        <v>5</v>
-      </c>
-      <c r="F224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="H224" s="2">
         <v>96</v>
@@ -5478,7 +5483,7 @@
         <v>24</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H225" s="2">
         <v>96</v>
@@ -5491,7 +5496,7 @@
         <v>30</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H226" s="2">
         <v>96</v>
@@ -5504,7 +5509,7 @@
         <v>37</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H227" s="2">
         <v>96</v>
@@ -5513,10 +5518,10 @@
     <row r="228" spans="1:8">
       <c r="A228" s="30"/>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5547,10 +5552,10 @@
     <row r="230" spans="1:8">
       <c r="A230" s="30"/>
       <c r="B230" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5581,10 +5586,10 @@
     <row r="232" spans="1:8">
       <c r="A232" s="30"/>
       <c r="B232" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5615,10 +5620,10 @@
     <row r="234" spans="1:8">
       <c r="A234" s="30"/>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5649,10 +5654,10 @@
     <row r="236" spans="1:8">
       <c r="A236" s="30"/>
       <c r="B236" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5683,10 +5688,10 @@
     <row r="238" spans="1:8">
       <c r="A238" s="30"/>
       <c r="B238" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5717,10 +5722,10 @@
     <row r="240" spans="1:8">
       <c r="A240" s="30"/>
       <c r="B240" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5751,10 +5756,10 @@
     <row r="242" spans="1:8">
       <c r="A242" s="30"/>
       <c r="B242" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5785,10 +5790,10 @@
     <row r="244" spans="1:8">
       <c r="A244" s="30"/>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5814,13 +5819,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B246" t="s">
+        <v>316</v>
+      </c>
+      <c r="D246" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="B246" t="s">
-        <v>318</v>
-      </c>
-      <c r="D246" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5851,10 +5856,10 @@
     <row r="248" spans="1:8">
       <c r="A248" s="30"/>
       <c r="B248" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5885,10 +5890,10 @@
     <row r="250" spans="1:8">
       <c r="A250" s="30"/>
       <c r="B250" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5919,10 +5924,10 @@
     <row r="252" spans="1:8">
       <c r="A252" s="30"/>
       <c r="B252" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>

--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -375,9 +375,6 @@
     <t>Feeling of the Lump</t>
   </si>
   <si>
-    <t>US cities.xlsx</t>
-  </si>
-  <si>
     <t>Lastly, please provide us with your city address</t>
   </si>
   <si>
@@ -1009,6 +1006,9 @@
   </si>
   <si>
     <t>No.PNG&gt;No, 100</t>
+  </si>
+  <si>
+    <t>US_cities.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2101,7 +2101,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>12</v>
@@ -2110,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="H20" s="2">
         <v>7</v>
@@ -2312,7 +2312,7 @@
         <v>22</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H33" s="2">
         <v>10</v>
@@ -2325,7 +2325,7 @@
         <v>24</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
@@ -2453,7 +2453,7 @@
         <v>22</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H42" s="2">
         <v>13</v>
@@ -2466,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
@@ -2497,7 +2497,7 @@
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>44</v>
@@ -2846,10 +2846,10 @@
         <v>81</v>
       </c>
       <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>3</v>
@@ -2943,22 +2943,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
         <v>121</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>124</v>
       </c>
       <c r="H72" s="2">
         <v>27</v>
@@ -2980,10 +2980,10 @@
     <row r="74" spans="1:8">
       <c r="A74" s="30"/>
       <c r="B74" t="s">
+        <v>124</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3014,10 +3014,10 @@
     <row r="76" spans="1:8">
       <c r="A76" s="30"/>
       <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3048,10 +3048,10 @@
     <row r="78" spans="1:8">
       <c r="A78" s="30"/>
       <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3082,10 +3082,10 @@
     <row r="80" spans="1:8">
       <c r="A80" s="30"/>
       <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3101,10 +3101,10 @@
     <row r="81" spans="1:8">
       <c r="A81" s="30"/>
       <c r="B81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3152,7 +3152,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H84" s="2">
         <v>32</v>
@@ -3161,19 +3161,19 @@
     <row r="85" spans="1:8">
       <c r="A85" s="30"/>
       <c r="B85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>137</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>138</v>
       </c>
       <c r="H85" s="2">
         <v>33</v>
@@ -3186,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H86" s="2">
         <v>33</v>
@@ -3195,10 +3195,10 @@
     <row r="87" spans="1:8">
       <c r="A87" s="30"/>
       <c r="B87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3229,19 +3229,19 @@
     <row r="89" spans="1:8">
       <c r="A89" s="30"/>
       <c r="B89" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>143</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>144</v>
       </c>
       <c r="H89" s="2">
         <v>35</v>
@@ -3254,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H90" s="2">
         <v>35</v>
@@ -3267,7 +3267,7 @@
         <v>30</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H91" s="2">
         <v>35</v>
@@ -3276,7 +3276,7 @@
     <row r="92" spans="1:8" ht="30">
       <c r="A92" s="30"/>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>48</v>
@@ -3288,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H92" s="2">
         <v>36</v>
@@ -3301,7 +3301,7 @@
         <v>24</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H93" s="2">
         <v>36</v>
@@ -3314,7 +3314,7 @@
         <v>30</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H94" s="2">
         <v>36</v>
@@ -3323,10 +3323,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="30"/>
       <c r="B95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3357,10 +3357,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="30"/>
       <c r="B97" t="s">
+        <v>152</v>
+      </c>
+      <c r="D97" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3391,10 +3391,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="30"/>
       <c r="B99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -3425,10 +3425,10 @@
     <row r="101" spans="1:8">
       <c r="A101" s="30"/>
       <c r="B101" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>157</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -3454,13 +3454,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
         <v>159</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" s="12" t="s">
         <v>160</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -3491,10 +3491,10 @@
     <row r="105" spans="1:8">
       <c r="A105" s="30"/>
       <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -3525,19 +3525,19 @@
     <row r="107" spans="1:8">
       <c r="A107" s="30"/>
       <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>165</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>166</v>
       </c>
       <c r="H107" s="2">
         <v>43</v>
@@ -3550,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H108" s="2">
         <v>43</v>
@@ -3563,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H109" s="2">
         <v>43</v>
@@ -3576,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H110" s="2">
         <v>43</v>
@@ -3589,7 +3589,7 @@
         <v>84</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H111" s="2">
         <v>43</v>
@@ -3602,7 +3602,7 @@
         <v>85</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H112" s="2">
         <v>43</v>
@@ -3615,7 +3615,7 @@
         <v>86</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H113" s="2">
         <v>43</v>
@@ -3628,7 +3628,7 @@
         <v>87</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H114" s="2">
         <v>43</v>
@@ -3638,10 +3638,10 @@
       <c r="A115" s="30"/>
       <c r="D115" s="13"/>
       <c r="F115" t="s">
+        <v>173</v>
+      </c>
+      <c r="G115" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="H115" s="2">
         <v>43</v>
@@ -3650,19 +3650,19 @@
     <row r="116" spans="1:8">
       <c r="A116" s="30"/>
       <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="H116" s="2">
         <v>44</v>
@@ -3684,19 +3684,19 @@
     <row r="118" spans="1:8">
       <c r="A118" s="30"/>
       <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="H118" s="2">
         <v>45</v>
@@ -3709,7 +3709,7 @@
         <v>24</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H119" s="2">
         <v>45</v>
@@ -3722,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H120" s="2">
         <v>45</v>
@@ -3731,10 +3731,10 @@
     <row r="121" spans="1:8">
       <c r="A121" s="30"/>
       <c r="B121" t="s">
+        <v>181</v>
+      </c>
+      <c r="D121" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -3765,10 +3765,10 @@
     <row r="123" spans="1:8">
       <c r="A123" s="30"/>
       <c r="B123" t="s">
+        <v>183</v>
+      </c>
+      <c r="D123" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3799,10 +3799,10 @@
     <row r="125" spans="1:8">
       <c r="A125" s="29"/>
       <c r="B125" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -3833,10 +3833,10 @@
     <row r="127" spans="1:8">
       <c r="A127" s="30"/>
       <c r="B127" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>189</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -3867,10 +3867,10 @@
     <row r="129" spans="1:8">
       <c r="A129" s="30"/>
       <c r="B129" t="s">
+        <v>189</v>
+      </c>
+      <c r="D129" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -3901,10 +3901,10 @@
     <row r="131" spans="1:8">
       <c r="A131" s="30"/>
       <c r="B131" t="s">
+        <v>191</v>
+      </c>
+      <c r="D131" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3935,10 +3935,10 @@
     <row r="133" spans="1:8">
       <c r="A133" s="30"/>
       <c r="B133" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3969,10 +3969,10 @@
     <row r="135" spans="1:8">
       <c r="A135" s="30"/>
       <c r="B135" t="s">
+        <v>195</v>
+      </c>
+      <c r="D135" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -4003,10 +4003,10 @@
     <row r="137" spans="1:8">
       <c r="A137" s="30"/>
       <c r="B137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D137" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4032,13 +4032,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" t="s">
         <v>200</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" s="14" t="s">
         <v>201</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4069,10 +4069,10 @@
     <row r="141" spans="1:8">
       <c r="A141" s="30"/>
       <c r="B141" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="D141" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4103,19 +4103,19 @@
     <row r="143" spans="1:8">
       <c r="A143" s="30"/>
       <c r="B143" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="D143" s="14" t="s">
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="H143" s="2">
         <v>57</v>
@@ -4128,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H144" s="2">
         <v>57</v>
@@ -4141,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H145" s="2">
         <v>57</v>
@@ -4154,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H146" s="2">
         <v>57</v>
@@ -4163,10 +4163,10 @@
     <row r="147" spans="1:8">
       <c r="A147" s="30"/>
       <c r="B147" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="D147" s="14" t="s">
-        <v>212</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4197,10 +4197,10 @@
     <row r="149" spans="1:8">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
+        <v>212</v>
+      </c>
+      <c r="D149" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="D149" s="14" t="s">
-        <v>214</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4231,19 +4231,19 @@
     <row r="151" spans="1:8">
       <c r="A151" s="30"/>
       <c r="B151" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="22" t="s">
         <v>216</v>
-      </c>
-      <c r="E151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>217</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -4254,7 +4254,7 @@
         <v>24</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H152" s="2"/>
     </row>
@@ -4265,19 +4265,19 @@
         <v>30</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B154" t="s">
         <v>220</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4308,11 +4308,11 @@
     <row r="156" spans="1:8">
       <c r="A156" s="30"/>
       <c r="B156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="D156" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="E156" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H156" s="2">
         <v>62</v>
@@ -4342,10 +4342,10 @@
     <row r="158" spans="1:8">
       <c r="A158" s="30"/>
       <c r="B158" t="s">
+        <v>224</v>
+      </c>
+      <c r="D158" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4376,10 +4376,10 @@
     <row r="160" spans="1:8">
       <c r="A160" s="30"/>
       <c r="B160" t="s">
+        <v>226</v>
+      </c>
+      <c r="D160" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4410,7 +4410,7 @@
     <row r="162" spans="1:8">
       <c r="A162" s="30"/>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>66</v>
@@ -4444,10 +4444,10 @@
     <row r="164" spans="1:8">
       <c r="A164" s="30"/>
       <c r="B164" t="s">
+        <v>229</v>
+      </c>
+      <c r="D164" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4478,10 +4478,10 @@
     <row r="166" spans="1:8">
       <c r="A166" s="30"/>
       <c r="B166" t="s">
+        <v>231</v>
+      </c>
+      <c r="D166" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4512,10 +4512,10 @@
     <row r="168" spans="1:8">
       <c r="A168" s="30"/>
       <c r="B168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="D168" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4546,10 +4546,10 @@
     <row r="170" spans="1:8">
       <c r="A170" s="30"/>
       <c r="B170" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4580,10 +4580,10 @@
     <row r="172" spans="1:8">
       <c r="A172" s="29"/>
       <c r="B172" t="s">
+        <v>237</v>
+      </c>
+      <c r="D172" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="D172" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4614,10 +4614,10 @@
     <row r="174" spans="1:8">
       <c r="A174" s="30"/>
       <c r="B174" t="s">
+        <v>239</v>
+      </c>
+      <c r="D174" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>241</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4648,10 +4648,10 @@
     <row r="176" spans="1:8">
       <c r="A176" s="30"/>
       <c r="B176" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="D176" s="15" t="s">
-        <v>243</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4682,10 +4682,10 @@
     <row r="178" spans="1:8">
       <c r="A178" s="30"/>
       <c r="B178" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="D178" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4716,10 +4716,10 @@
     <row r="180" spans="1:8">
       <c r="A180" s="30"/>
       <c r="B180" t="s">
+        <v>245</v>
+      </c>
+      <c r="D180" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="D180" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4750,10 +4750,10 @@
     <row r="182" spans="1:8">
       <c r="A182" s="30"/>
       <c r="B182" t="s">
+        <v>247</v>
+      </c>
+      <c r="D182" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="D182" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4779,13 +4779,13 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B184" t="s">
         <v>250</v>
       </c>
-      <c r="B184" t="s">
+      <c r="D184" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4816,19 +4816,19 @@
     <row r="186" spans="1:8">
       <c r="A186" s="30"/>
       <c r="B186" t="s">
+        <v>252</v>
+      </c>
+      <c r="D186" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="D186" s="16" t="s">
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="E186" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="H186" s="2">
         <v>77</v>
@@ -4841,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H187" s="2">
         <v>77</v>
@@ -4850,10 +4850,10 @@
     <row r="188" spans="1:8">
       <c r="A188" s="30"/>
       <c r="B188" t="s">
+        <v>256</v>
+      </c>
+      <c r="D188" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="D188" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4884,11 +4884,11 @@
     <row r="190" spans="1:8">
       <c r="A190" s="30"/>
       <c r="B190" t="s">
+        <v>258</v>
+      </c>
+      <c r="D190" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D190" s="16" t="s">
-        <v>260</v>
-      </c>
       <c r="E190" t="s">
         <v>5</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H190" s="2">
         <v>79</v>
@@ -4918,19 +4918,19 @@
     <row r="192" spans="1:8">
       <c r="A192" s="30"/>
       <c r="B192" t="s">
+        <v>260</v>
+      </c>
+      <c r="D192" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="D192" s="16" t="s">
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H192" s="2">
         <v>80</v>
@@ -4943,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H193" s="2">
         <v>80</v>
@@ -4952,10 +4952,10 @@
     <row r="194" spans="1:8">
       <c r="A194" s="30"/>
       <c r="B194" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -4986,10 +4986,10 @@
     <row r="196" spans="1:8">
       <c r="A196" s="30"/>
       <c r="B196" t="s">
+        <v>265</v>
+      </c>
+      <c r="D196" s="16" t="s">
         <v>266</v>
-      </c>
-      <c r="D196" s="16" t="s">
-        <v>267</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -5009,19 +5009,19 @@
         <v>24</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B198" t="s">
         <v>269</v>
       </c>
-      <c r="B198" t="s">
+      <c r="D198" s="17" t="s">
         <v>270</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>271</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -5052,19 +5052,19 @@
     <row r="200" spans="1:8">
       <c r="A200" s="30"/>
       <c r="B200" t="s">
+        <v>271</v>
+      </c>
+      <c r="D200" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D200" s="17" t="s">
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="E200" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" s="27" t="s">
-        <v>274</v>
       </c>
       <c r="H200" s="2">
         <v>84</v>
@@ -5077,7 +5077,7 @@
         <v>24</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H201" s="2">
         <v>84</v>
@@ -5086,19 +5086,19 @@
     <row r="202" spans="1:8">
       <c r="A202" s="29"/>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D202" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="E202" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" t="s">
+        <v>22</v>
+      </c>
+      <c r="G202" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="E202" t="s">
-        <v>5</v>
-      </c>
-      <c r="F202" t="s">
-        <v>22</v>
-      </c>
-      <c r="G202" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="H202" s="2">
         <v>85</v>
@@ -5111,7 +5111,7 @@
         <v>24</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H203" s="2">
         <v>85</v>
@@ -5120,10 +5120,10 @@
     <row r="204" spans="1:8">
       <c r="A204" s="30"/>
       <c r="B204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5154,10 +5154,10 @@
     <row r="206" spans="1:8">
       <c r="A206" s="30"/>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5166,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H206" s="2">
         <v>87</v>
@@ -5188,19 +5188,19 @@
     <row r="208" spans="1:8">
       <c r="A208" s="30"/>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D208" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E208" t="s">
+        <v>5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="E208" t="s">
-        <v>5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>22</v>
-      </c>
-      <c r="G208" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H208" s="2">
         <v>88</v>
@@ -5213,7 +5213,7 @@
         <v>24</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H209" s="2">
         <v>88</v>
@@ -5222,10 +5222,10 @@
     <row r="210" spans="1:8">
       <c r="A210" s="30"/>
       <c r="B210" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5256,10 +5256,10 @@
     <row r="212" spans="1:8">
       <c r="A212" s="30"/>
       <c r="B212" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B214" t="s">
         <v>282</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" s="18" t="s">
         <v>283</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>284</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5322,10 +5322,10 @@
     <row r="216" spans="1:8">
       <c r="A216" s="30"/>
       <c r="B216" t="s">
+        <v>284</v>
+      </c>
+      <c r="D216" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="D216" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5356,10 +5356,10 @@
     <row r="218" spans="1:8">
       <c r="A218" s="30"/>
       <c r="B218" t="s">
+        <v>286</v>
+      </c>
+      <c r="D218" s="18" t="s">
         <v>287</v>
-      </c>
-      <c r="D218" s="18" t="s">
-        <v>288</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5390,10 +5390,10 @@
     <row r="220" spans="1:8">
       <c r="A220" s="30"/>
       <c r="B220" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5402,7 +5402,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H220" s="2">
         <v>94</v>
@@ -5424,10 +5424,10 @@
     <row r="222" spans="1:8">
       <c r="A222" s="30"/>
       <c r="B222" t="s">
+        <v>289</v>
+      </c>
+      <c r="D222" s="18" t="s">
         <v>290</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>291</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5458,19 +5458,19 @@
     <row r="224" spans="1:8">
       <c r="A224" s="30"/>
       <c r="B224" t="s">
+        <v>291</v>
+      </c>
+      <c r="D224" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D224" s="18" t="s">
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="E224" t="s">
-        <v>5</v>
-      </c>
-      <c r="F224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="H224" s="2">
         <v>96</v>
@@ -5483,7 +5483,7 @@
         <v>24</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H225" s="2">
         <v>96</v>
@@ -5496,7 +5496,7 @@
         <v>30</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H226" s="2">
         <v>96</v>
@@ -5509,7 +5509,7 @@
         <v>37</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H227" s="2">
         <v>96</v>
@@ -5518,10 +5518,10 @@
     <row r="228" spans="1:8">
       <c r="A228" s="30"/>
       <c r="B228" t="s">
+        <v>297</v>
+      </c>
+      <c r="D228" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="D228" s="18" t="s">
-        <v>299</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5552,10 +5552,10 @@
     <row r="230" spans="1:8">
       <c r="A230" s="30"/>
       <c r="B230" t="s">
+        <v>299</v>
+      </c>
+      <c r="D230" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="D230" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5586,10 +5586,10 @@
     <row r="232" spans="1:8">
       <c r="A232" s="30"/>
       <c r="B232" t="s">
+        <v>301</v>
+      </c>
+      <c r="D232" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="D232" s="18" t="s">
-        <v>303</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5620,10 +5620,10 @@
     <row r="234" spans="1:8">
       <c r="A234" s="30"/>
       <c r="B234" t="s">
+        <v>303</v>
+      </c>
+      <c r="D234" s="18" t="s">
         <v>304</v>
-      </c>
-      <c r="D234" s="18" t="s">
-        <v>305</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5654,10 +5654,10 @@
     <row r="236" spans="1:8">
       <c r="A236" s="30"/>
       <c r="B236" t="s">
+        <v>305</v>
+      </c>
+      <c r="D236" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="D236" s="18" t="s">
-        <v>307</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5688,10 +5688,10 @@
     <row r="238" spans="1:8">
       <c r="A238" s="30"/>
       <c r="B238" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5722,10 +5722,10 @@
     <row r="240" spans="1:8">
       <c r="A240" s="30"/>
       <c r="B240" t="s">
+        <v>308</v>
+      </c>
+      <c r="D240" s="18" t="s">
         <v>309</v>
-      </c>
-      <c r="D240" s="18" t="s">
-        <v>310</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5756,10 +5756,10 @@
     <row r="242" spans="1:8">
       <c r="A242" s="30"/>
       <c r="B242" t="s">
+        <v>310</v>
+      </c>
+      <c r="D242" s="18" t="s">
         <v>311</v>
-      </c>
-      <c r="D242" s="18" t="s">
-        <v>312</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5790,10 +5790,10 @@
     <row r="244" spans="1:8">
       <c r="A244" s="30"/>
       <c r="B244" t="s">
+        <v>312</v>
+      </c>
+      <c r="D244" s="18" t="s">
         <v>313</v>
-      </c>
-      <c r="D244" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5819,13 +5819,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B246" t="s">
         <v>315</v>
       </c>
-      <c r="B246" t="s">
+      <c r="D246" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="D246" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5856,10 +5856,10 @@
     <row r="248" spans="1:8">
       <c r="A248" s="30"/>
       <c r="B248" t="s">
+        <v>317</v>
+      </c>
+      <c r="D248" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="D248" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5890,10 +5890,10 @@
     <row r="250" spans="1:8">
       <c r="A250" s="30"/>
       <c r="B250" t="s">
+        <v>319</v>
+      </c>
+      <c r="D250" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="D250" s="19" t="s">
-        <v>321</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5924,10 +5924,10 @@
     <row r="252" spans="1:8">
       <c r="A252" s="30"/>
       <c r="B252" t="s">
+        <v>321</v>
+      </c>
+      <c r="D252" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="D252" s="19" t="s">
-        <v>323</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>

--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workstation\Django\Django_ChatBot\media\read_sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-20616" yWindow="12" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,9 +370,18 @@
     <t>Feeling of the Lump</t>
   </si>
   <si>
+    <t>US cities.xlsx</t>
+  </si>
+  <si>
     <t>Lastly, please provide us with your city address</t>
   </si>
   <si>
+    <t>Yes.png&gt;Yes, 100</t>
+  </si>
+  <si>
+    <t>No.png&gt;No, 100</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=0LdksJKHzMo&gt;Under NAC, 100</t>
   </si>
   <si>
@@ -1000,21 +1004,12 @@
   </si>
   <si>
     <t>Is this multi-person claim?</t>
-  </si>
-  <si>
-    <t>Yes.PNG&gt;Yes, 100</t>
-  </si>
-  <si>
-    <t>No.PNG&gt;No, 100</t>
-  </si>
-  <si>
-    <t>US_cities.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1845,7 +1840,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1855,83 +1850,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:8" ht="15" thickBot="1">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:8" ht="15" thickBot="1">
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:8" ht="15" thickBot="1">
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1940,7 +1935,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:8" ht="15" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -1950,7 +1945,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="12" spans="1:8" ht="15" thickBot="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -1960,7 +1955,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="B13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1969,7 +1964,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:8" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30.75" thickBot="1">
+    <row r="15" spans="1:8" ht="15" thickBot="1">
       <c r="A15" s="29" t="s">
         <v>93</v>
       </c>
@@ -2016,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30.75" thickBot="1">
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>26</v>
@@ -2035,7 +2030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>32</v>
@@ -2057,7 +2052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.75" thickBot="1">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="30"/>
       <c r="B18" s="21" t="s">
         <v>39</v>
@@ -2076,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30.75" thickBot="1">
+    <row r="19" spans="1:9" ht="15" thickBot="1">
       <c r="A19" s="30"/>
       <c r="B19" s="21" t="s">
         <v>41</v>
@@ -2095,13 +2090,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30.75" thickBot="1">
+    <row r="20" spans="1:9" ht="15" thickBot="1">
       <c r="A20" s="30"/>
       <c r="B20" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>12</v>
@@ -2110,13 +2105,13 @@
         <v>22</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>325</v>
+        <v>114</v>
       </c>
       <c r="H20" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30.75" thickBot="1">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="30" t="s">
         <v>94</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+    <row r="22" spans="1:9" ht="15" thickBot="1">
       <c r="A22" s="30"/>
       <c r="B22" s="21"/>
       <c r="D22" s="6"/>
@@ -2153,7 +2148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+    <row r="23" spans="1:9" ht="15" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
       <c r="D23" s="6"/>
@@ -2167,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="29"/>
       <c r="B24" s="21"/>
       <c r="D24" s="6"/>
@@ -2181,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="30" t="s">
         <v>95</v>
       </c>
@@ -2204,7 +2199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="30"/>
       <c r="D26" s="6"/>
       <c r="F26" t="s">
@@ -2217,7 +2212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+    <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="30"/>
       <c r="D27" s="6"/>
       <c r="F27" t="s">
@@ -2230,7 +2225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="30"/>
       <c r="D28" s="6"/>
       <c r="F28" t="s">
@@ -2243,7 +2238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+    <row r="29" spans="1:9" ht="15" thickBot="1">
       <c r="A29" s="30"/>
       <c r="D29" s="6"/>
       <c r="F29" t="s">
@@ -2256,7 +2251,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="30"/>
       <c r="D30" s="6"/>
       <c r="F30" t="s">
@@ -2269,7 +2264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="30"/>
       <c r="D31" s="6"/>
       <c r="F31" t="s">
@@ -2282,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="30"/>
       <c r="D32" s="6"/>
       <c r="F32" t="s">
@@ -2295,7 +2290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+    <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="30" t="s">
         <v>96</v>
       </c>
@@ -2312,26 +2307,26 @@
         <v>22</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>323</v>
+        <v>116</v>
       </c>
       <c r="H33" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="30"/>
       <c r="D34" s="7"/>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>324</v>
+        <v>117</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+    <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>59</v>
@@ -2352,7 +2347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="30"/>
       <c r="D36" s="7"/>
       <c r="F36" t="s">
@@ -2365,7 +2360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="30"/>
       <c r="D37" s="7"/>
       <c r="F37" t="s">
@@ -2378,7 +2373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="30"/>
       <c r="B38" t="s">
         <v>63</v>
@@ -2399,7 +2394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="30"/>
       <c r="D39" s="7"/>
       <c r="F39" t="s">
@@ -2412,7 +2407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15" thickBot="1">
       <c r="A40" s="29"/>
       <c r="D40" s="7"/>
       <c r="F40" t="s">
@@ -2425,7 +2420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="30"/>
       <c r="D41" s="7"/>
       <c r="F41" t="s">
@@ -2438,7 +2433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="45.75" thickBot="1">
+    <row r="42" spans="1:8" ht="43.8" thickBot="1">
       <c r="A42" s="30"/>
       <c r="B42" t="s">
         <v>65</v>
@@ -2453,26 +2448,26 @@
         <v>22</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H42" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="45.75" thickBot="1">
+    <row r="43" spans="1:8" ht="43.8" thickBot="1">
       <c r="A43" s="30"/>
       <c r="D43" s="7"/>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15" thickBot="1">
       <c r="A44" s="30"/>
       <c r="B44" t="s">
         <v>67</v>
@@ -2491,13 +2486,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" t="s">
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>44</v>
@@ -2515,7 +2510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15" thickBot="1">
       <c r="A46" s="30"/>
       <c r="D46" s="7"/>
       <c r="F46" t="s">
@@ -2528,7 +2523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1">
+    <row r="47" spans="1:8" ht="15" thickBot="1">
       <c r="A47" s="30"/>
       <c r="B47" t="s">
         <v>71</v>
@@ -2549,7 +2544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+    <row r="48" spans="1:8" ht="15" thickBot="1">
       <c r="A48" s="30"/>
       <c r="D48" s="7"/>
       <c r="F48" t="s">
@@ -2562,7 +2557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15" thickBot="1">
       <c r="A49" s="30"/>
       <c r="D49" s="7"/>
       <c r="F49" t="s">
@@ -2575,7 +2570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15" thickBot="1">
       <c r="A50" s="30"/>
       <c r="D50" s="7"/>
       <c r="F50" t="s">
@@ -2588,7 +2583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="30"/>
       <c r="B51" t="s">
         <v>72</v>
@@ -2609,7 +2604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1">
       <c r="A52" s="30"/>
       <c r="D52" s="7"/>
       <c r="F52" t="s">
@@ -2622,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
       <c r="A53" s="30"/>
       <c r="B53" t="s">
         <v>74</v>
@@ -2643,7 +2638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="30"/>
       <c r="D54" s="7"/>
       <c r="F54" t="s">
@@ -2656,7 +2651,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15" thickBot="1">
       <c r="A55" s="30"/>
       <c r="B55" t="s">
         <v>76</v>
@@ -2677,7 +2672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="30"/>
       <c r="D56" s="7"/>
       <c r="F56" t="s">
@@ -2690,7 +2685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="30"/>
       <c r="D57" s="7"/>
       <c r="F57" t="s">
@@ -2703,7 +2698,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" t="s">
         <v>77</v>
@@ -2724,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="30"/>
       <c r="D59" s="7"/>
       <c r="F59" t="s">
@@ -2737,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" t="s">
         <v>78</v>
@@ -2758,7 +2753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="30"/>
       <c r="D61" s="7"/>
       <c r="F61" t="s">
@@ -2771,7 +2766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15" thickBot="1">
       <c r="A62" s="30"/>
       <c r="B62" t="s">
         <v>79</v>
@@ -2792,7 +2787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" thickBot="1">
+    <row r="63" spans="1:8" ht="15" thickBot="1">
       <c r="A63" s="30"/>
       <c r="C63" s="8"/>
       <c r="D63" s="7"/>
@@ -2806,7 +2801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+    <row r="64" spans="1:8" ht="15" thickBot="1">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
         <v>80</v>
@@ -2827,7 +2822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickBot="1">
+    <row r="65" spans="1:8" ht="15" thickBot="1">
       <c r="A65" s="30"/>
       <c r="D65" s="7"/>
       <c r="F65" t="s">
@@ -2840,16 +2835,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="30"/>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>3</v>
@@ -2864,7 +2859,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="A67" s="30"/>
       <c r="D67" s="7"/>
       <c r="F67" t="s">
@@ -2877,7 +2872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15" thickBot="1">
       <c r="A68" s="30"/>
       <c r="B68" t="s">
         <v>82</v>
@@ -2898,7 +2893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1">
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="30"/>
       <c r="D69" s="7"/>
       <c r="F69" t="s">
@@ -2911,7 +2906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15" thickBot="1">
       <c r="A70" s="30"/>
       <c r="B70" t="s">
         <v>83</v>
@@ -2943,13 +2938,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -2958,7 +2953,7 @@
         <v>22</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H72" s="2">
         <v>27</v>
@@ -2980,10 +2975,10 @@
     <row r="74" spans="1:8">
       <c r="A74" s="30"/>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3014,10 +3009,10 @@
     <row r="76" spans="1:8">
       <c r="A76" s="30"/>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3048,10 +3043,10 @@
     <row r="78" spans="1:8">
       <c r="A78" s="30"/>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3082,10 +3077,10 @@
     <row r="80" spans="1:8">
       <c r="A80" s="30"/>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3101,10 +3096,10 @@
     <row r="81" spans="1:8">
       <c r="A81" s="30"/>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3152,7 +3147,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H84" s="2">
         <v>32</v>
@@ -3161,10 +3156,10 @@
     <row r="85" spans="1:8">
       <c r="A85" s="30"/>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -3173,7 +3168,7 @@
         <v>22</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H85" s="2">
         <v>33</v>
@@ -3186,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H86" s="2">
         <v>33</v>
@@ -3195,10 +3190,10 @@
     <row r="87" spans="1:8">
       <c r="A87" s="30"/>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3229,10 +3224,10 @@
     <row r="89" spans="1:8">
       <c r="A89" s="30"/>
       <c r="B89" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -3241,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="G89" s="22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H89" s="2">
         <v>35</v>
@@ -3254,7 +3249,7 @@
         <v>24</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H90" s="2">
         <v>35</v>
@@ -3267,16 +3262,16 @@
         <v>30</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H91" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="28.8">
       <c r="A92" s="30"/>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>48</v>
@@ -3288,7 +3283,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H92" s="2">
         <v>36</v>
@@ -3301,20 +3296,20 @@
         <v>24</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H93" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:8" ht="28.8">
       <c r="A94" s="30"/>
       <c r="D94" s="9"/>
       <c r="F94" t="s">
         <v>30</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H94" s="2">
         <v>36</v>
@@ -3323,10 +3318,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="30"/>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3357,10 +3352,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="30"/>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3391,10 +3386,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="30"/>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -3425,10 +3420,10 @@
     <row r="101" spans="1:8">
       <c r="A101" s="30"/>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -3454,13 +3449,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="30" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B103" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -3491,10 +3486,10 @@
     <row r="105" spans="1:8">
       <c r="A105" s="30"/>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -3525,10 +3520,10 @@
     <row r="107" spans="1:8">
       <c r="A107" s="30"/>
       <c r="B107" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -3537,7 +3532,7 @@
         <v>22</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H107" s="2">
         <v>43</v>
@@ -3550,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H108" s="2">
         <v>43</v>
@@ -3563,7 +3558,7 @@
         <v>30</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H109" s="2">
         <v>43</v>
@@ -3576,7 +3571,7 @@
         <v>37</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H110" s="2">
         <v>43</v>
@@ -3589,7 +3584,7 @@
         <v>84</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H111" s="2">
         <v>43</v>
@@ -3602,7 +3597,7 @@
         <v>85</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H112" s="2">
         <v>43</v>
@@ -3615,7 +3610,7 @@
         <v>86</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H113" s="2">
         <v>43</v>
@@ -3628,7 +3623,7 @@
         <v>87</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H114" s="2">
         <v>43</v>
@@ -3638,10 +3633,10 @@
       <c r="A115" s="30"/>
       <c r="D115" s="13"/>
       <c r="F115" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H115" s="2">
         <v>43</v>
@@ -3650,10 +3645,10 @@
     <row r="116" spans="1:8">
       <c r="A116" s="30"/>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -3662,7 +3657,7 @@
         <v>22</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H116" s="2">
         <v>44</v>
@@ -3684,10 +3679,10 @@
     <row r="118" spans="1:8">
       <c r="A118" s="30"/>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -3696,7 +3691,7 @@
         <v>22</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H118" s="2">
         <v>45</v>
@@ -3709,7 +3704,7 @@
         <v>24</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H119" s="2">
         <v>45</v>
@@ -3722,7 +3717,7 @@
         <v>30</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H120" s="2">
         <v>45</v>
@@ -3731,10 +3726,10 @@
     <row r="121" spans="1:8">
       <c r="A121" s="30"/>
       <c r="B121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -3765,10 +3760,10 @@
     <row r="123" spans="1:8">
       <c r="A123" s="30"/>
       <c r="B123" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3799,10 +3794,10 @@
     <row r="125" spans="1:8">
       <c r="A125" s="29"/>
       <c r="B125" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -3833,10 +3828,10 @@
     <row r="127" spans="1:8">
       <c r="A127" s="30"/>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -3867,10 +3862,10 @@
     <row r="129" spans="1:8">
       <c r="A129" s="30"/>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -3901,10 +3896,10 @@
     <row r="131" spans="1:8">
       <c r="A131" s="30"/>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3935,10 +3930,10 @@
     <row r="133" spans="1:8">
       <c r="A133" s="30"/>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3969,10 +3964,10 @@
     <row r="135" spans="1:8">
       <c r="A135" s="30"/>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -4003,10 +3998,10 @@
     <row r="137" spans="1:8">
       <c r="A137" s="30"/>
       <c r="B137" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4032,13 +4027,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4069,10 +4064,10 @@
     <row r="141" spans="1:8">
       <c r="A141" s="30"/>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4103,10 +4098,10 @@
     <row r="143" spans="1:8">
       <c r="A143" s="30"/>
       <c r="B143" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -4115,7 +4110,7 @@
         <v>22</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H143" s="2">
         <v>57</v>
@@ -4128,7 +4123,7 @@
         <v>24</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H144" s="2">
         <v>57</v>
@@ -4141,7 +4136,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H145" s="2">
         <v>57</v>
@@ -4154,7 +4149,7 @@
         <v>37</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H146" s="2">
         <v>57</v>
@@ -4163,10 +4158,10 @@
     <row r="147" spans="1:8">
       <c r="A147" s="30"/>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4197,10 +4192,10 @@
     <row r="149" spans="1:8">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4231,10 +4226,10 @@
     <row r="151" spans="1:8">
       <c r="A151" s="30"/>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -4243,7 +4238,7 @@
         <v>22</v>
       </c>
       <c r="G151" s="22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -4254,7 +4249,7 @@
         <v>24</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H152" s="2"/>
     </row>
@@ -4265,19 +4260,19 @@
         <v>30</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4308,10 +4303,10 @@
     <row r="156" spans="1:8">
       <c r="A156" s="30"/>
       <c r="B156" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -4320,7 +4315,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H156" s="2">
         <v>62</v>
@@ -4342,10 +4337,10 @@
     <row r="158" spans="1:8">
       <c r="A158" s="30"/>
       <c r="B158" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4376,10 +4371,10 @@
     <row r="160" spans="1:8">
       <c r="A160" s="30"/>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4410,7 +4405,7 @@
     <row r="162" spans="1:8">
       <c r="A162" s="30"/>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>66</v>
@@ -4444,10 +4439,10 @@
     <row r="164" spans="1:8">
       <c r="A164" s="30"/>
       <c r="B164" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4478,10 +4473,10 @@
     <row r="166" spans="1:8">
       <c r="A166" s="30"/>
       <c r="B166" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4512,10 +4507,10 @@
     <row r="168" spans="1:8">
       <c r="A168" s="30"/>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4546,10 +4541,10 @@
     <row r="170" spans="1:8">
       <c r="A170" s="30"/>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4580,10 +4575,10 @@
     <row r="172" spans="1:8">
       <c r="A172" s="29"/>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4614,10 +4609,10 @@
     <row r="174" spans="1:8">
       <c r="A174" s="30"/>
       <c r="B174" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4648,10 +4643,10 @@
     <row r="176" spans="1:8">
       <c r="A176" s="30"/>
       <c r="B176" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4682,10 +4677,10 @@
     <row r="178" spans="1:8">
       <c r="A178" s="30"/>
       <c r="B178" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4716,10 +4711,10 @@
     <row r="180" spans="1:8">
       <c r="A180" s="30"/>
       <c r="B180" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4750,10 +4745,10 @@
     <row r="182" spans="1:8">
       <c r="A182" s="30"/>
       <c r="B182" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4779,13 +4774,13 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4816,10 +4811,10 @@
     <row r="186" spans="1:8">
       <c r="A186" s="30"/>
       <c r="B186" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -4828,7 +4823,7 @@
         <v>22</v>
       </c>
       <c r="G186" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H186" s="2">
         <v>77</v>
@@ -4841,7 +4836,7 @@
         <v>24</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H187" s="2">
         <v>77</v>
@@ -4850,10 +4845,10 @@
     <row r="188" spans="1:8">
       <c r="A188" s="30"/>
       <c r="B188" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4884,10 +4879,10 @@
     <row r="190" spans="1:8">
       <c r="A190" s="30"/>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -4896,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H190" s="2">
         <v>79</v>
@@ -4918,10 +4913,10 @@
     <row r="192" spans="1:8">
       <c r="A192" s="30"/>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D192" s="16" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -4930,7 +4925,7 @@
         <v>22</v>
       </c>
       <c r="G192" s="22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H192" s="2">
         <v>80</v>
@@ -4943,7 +4938,7 @@
         <v>24</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H193" s="2">
         <v>80</v>
@@ -4952,10 +4947,10 @@
     <row r="194" spans="1:8">
       <c r="A194" s="30"/>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -4986,10 +4981,10 @@
     <row r="196" spans="1:8">
       <c r="A196" s="30"/>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -5009,19 +5004,19 @@
         <v>24</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B198" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -5052,10 +5047,10 @@
     <row r="200" spans="1:8">
       <c r="A200" s="30"/>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -5064,7 +5059,7 @@
         <v>22</v>
       </c>
       <c r="G200" s="27" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H200" s="2">
         <v>84</v>
@@ -5077,7 +5072,7 @@
         <v>24</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H201" s="2">
         <v>84</v>
@@ -5086,10 +5081,10 @@
     <row r="202" spans="1:8">
       <c r="A202" s="29"/>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -5098,7 +5093,7 @@
         <v>22</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H202" s="2">
         <v>85</v>
@@ -5111,7 +5106,7 @@
         <v>24</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H203" s="2">
         <v>85</v>
@@ -5120,10 +5115,10 @@
     <row r="204" spans="1:8">
       <c r="A204" s="30"/>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5154,10 +5149,10 @@
     <row r="206" spans="1:8">
       <c r="A206" s="30"/>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5166,7 +5161,7 @@
         <v>22</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H206" s="2">
         <v>87</v>
@@ -5188,10 +5183,10 @@
     <row r="208" spans="1:8">
       <c r="A208" s="30"/>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -5200,7 +5195,7 @@
         <v>22</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H208" s="2">
         <v>88</v>
@@ -5213,7 +5208,7 @@
         <v>24</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H209" s="2">
         <v>88</v>
@@ -5222,10 +5217,10 @@
     <row r="210" spans="1:8">
       <c r="A210" s="30"/>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5256,10 +5251,10 @@
     <row r="212" spans="1:8">
       <c r="A212" s="30"/>
       <c r="B212" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5285,13 +5280,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="30" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B214" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5322,10 +5317,10 @@
     <row r="216" spans="1:8">
       <c r="A216" s="30"/>
       <c r="B216" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5356,10 +5351,10 @@
     <row r="218" spans="1:8">
       <c r="A218" s="30"/>
       <c r="B218" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5390,10 +5385,10 @@
     <row r="220" spans="1:8">
       <c r="A220" s="30"/>
       <c r="B220" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5402,7 +5397,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H220" s="2">
         <v>94</v>
@@ -5424,10 +5419,10 @@
     <row r="222" spans="1:8">
       <c r="A222" s="30"/>
       <c r="B222" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5458,10 +5453,10 @@
     <row r="224" spans="1:8">
       <c r="A224" s="30"/>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D224" s="18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -5470,7 +5465,7 @@
         <v>22</v>
       </c>
       <c r="G224" s="22" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H224" s="2">
         <v>96</v>
@@ -5483,7 +5478,7 @@
         <v>24</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H225" s="2">
         <v>96</v>
@@ -5496,7 +5491,7 @@
         <v>30</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H226" s="2">
         <v>96</v>
@@ -5509,7 +5504,7 @@
         <v>37</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H227" s="2">
         <v>96</v>
@@ -5518,10 +5513,10 @@
     <row r="228" spans="1:8">
       <c r="A228" s="30"/>
       <c r="B228" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5552,10 +5547,10 @@
     <row r="230" spans="1:8">
       <c r="A230" s="30"/>
       <c r="B230" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5586,10 +5581,10 @@
     <row r="232" spans="1:8">
       <c r="A232" s="30"/>
       <c r="B232" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5620,10 +5615,10 @@
     <row r="234" spans="1:8">
       <c r="A234" s="30"/>
       <c r="B234" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5654,10 +5649,10 @@
     <row r="236" spans="1:8">
       <c r="A236" s="30"/>
       <c r="B236" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5688,10 +5683,10 @@
     <row r="238" spans="1:8">
       <c r="A238" s="30"/>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5722,10 +5717,10 @@
     <row r="240" spans="1:8">
       <c r="A240" s="30"/>
       <c r="B240" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5756,10 +5751,10 @@
     <row r="242" spans="1:8">
       <c r="A242" s="30"/>
       <c r="B242" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5790,10 +5785,10 @@
     <row r="244" spans="1:8">
       <c r="A244" s="30"/>
       <c r="B244" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5819,13 +5814,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="30" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B246" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D246" s="19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5856,10 +5851,10 @@
     <row r="248" spans="1:8">
       <c r="A248" s="30"/>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5890,10 +5885,10 @@
     <row r="250" spans="1:8">
       <c r="A250" s="30"/>
       <c r="B250" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5924,10 +5919,10 @@
     <row r="252" spans="1:8">
       <c r="A252" s="30"/>
       <c r="B252" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>

--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workstation\Django\Django_ChatBot\media\read_sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20616" yWindow="12" windowWidth="20736" windowHeight="11160"/>
+    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="326">
   <si>
     <t>No response</t>
   </si>
@@ -376,12 +381,6 @@
     <t>Lastly, please provide us with your city address</t>
   </si>
   <si>
-    <t>Yes.png&gt;Yes, 100</t>
-  </si>
-  <si>
-    <t>No.png&gt;No, 100</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=0LdksJKHzMo&gt;Under NAC, 100</t>
   </si>
   <si>
@@ -1004,12 +1003,18 @@
   </si>
   <si>
     <t>Is this multi-person claim?</t>
+  </si>
+  <si>
+    <t>Yes.PNG&gt;Yes, 100</t>
+  </si>
+  <si>
+    <t>No.PNG&gt;No, 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -1840,7 +1845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1850,83 +1855,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:H253"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
-    <col min="4" max="4" width="53.109375" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="B10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
@@ -1935,7 +1940,7 @@
       <c r="G10" s="28"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -1945,7 +1950,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
@@ -1955,7 +1960,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1">
       <c r="B13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
@@ -1964,7 +1969,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1">
+    <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1">
+    <row r="15" spans="1:8" ht="30.75" thickBot="1">
       <c r="A15" s="29" t="s">
         <v>93</v>
       </c>
@@ -2011,7 +2016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1">
+    <row r="16" spans="1:8" ht="30.75" thickBot="1">
       <c r="A16" s="30"/>
       <c r="B16" s="21" t="s">
         <v>26</v>
@@ -2030,7 +2035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1">
+    <row r="17" spans="1:9" ht="30.75" thickBot="1">
       <c r="A17" s="30"/>
       <c r="B17" s="21" t="s">
         <v>32</v>
@@ -2052,7 +2057,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1">
+    <row r="18" spans="1:9" ht="30.75" thickBot="1">
       <c r="A18" s="30"/>
       <c r="B18" s="21" t="s">
         <v>39</v>
@@ -2071,7 +2076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:9" ht="30.75" thickBot="1">
       <c r="A19" s="30"/>
       <c r="B19" s="21" t="s">
         <v>41</v>
@@ -2090,7 +2095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:9" ht="30.75" thickBot="1">
       <c r="A20" s="30"/>
       <c r="B20" s="21" t="s">
         <v>43</v>
@@ -2111,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="30.75" thickBot="1">
       <c r="A21" s="30" t="s">
         <v>94</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="30"/>
       <c r="B22" s="21"/>
       <c r="D22" s="6"/>
@@ -2148,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
       <c r="D23" s="6"/>
@@ -2162,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="29"/>
       <c r="B24" s="21"/>
       <c r="D24" s="6"/>
@@ -2176,7 +2181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="30" t="s">
         <v>95</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
       <c r="A26" s="30"/>
       <c r="D26" s="6"/>
       <c r="F26" t="s">
@@ -2212,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="30"/>
       <c r="D27" s="6"/>
       <c r="F27" t="s">
@@ -2225,7 +2230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="30"/>
       <c r="D28" s="6"/>
       <c r="F28" t="s">
@@ -2238,7 +2243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
       <c r="A29" s="30"/>
       <c r="D29" s="6"/>
       <c r="F29" t="s">
@@ -2251,7 +2256,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
       <c r="A30" s="30"/>
       <c r="D30" s="6"/>
       <c r="F30" t="s">
@@ -2264,7 +2269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
       <c r="A31" s="30"/>
       <c r="D31" s="6"/>
       <c r="F31" t="s">
@@ -2277,7 +2282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="30"/>
       <c r="D32" s="6"/>
       <c r="F32" t="s">
@@ -2290,7 +2295,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="30" t="s">
         <v>96</v>
       </c>
@@ -2307,26 +2312,26 @@
         <v>22</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="H33" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="30"/>
       <c r="D34" s="7"/>
       <c r="F34" t="s">
         <v>24</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="H34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="30"/>
       <c r="B35" t="s">
         <v>59</v>
@@ -2347,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="30"/>
       <c r="D36" s="7"/>
       <c r="F36" t="s">
@@ -2360,7 +2365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="30"/>
       <c r="D37" s="7"/>
       <c r="F37" t="s">
@@ -2373,7 +2378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="30"/>
       <c r="B38" t="s">
         <v>63</v>
@@ -2394,7 +2399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="30"/>
       <c r="D39" s="7"/>
       <c r="F39" t="s">
@@ -2407,7 +2412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="29"/>
       <c r="D40" s="7"/>
       <c r="F40" t="s">
@@ -2420,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="30"/>
       <c r="D41" s="7"/>
       <c r="F41" t="s">
@@ -2433,7 +2438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="43.8" thickBot="1">
+    <row r="42" spans="1:8" ht="45.75" thickBot="1">
       <c r="A42" s="30"/>
       <c r="B42" t="s">
         <v>65</v>
@@ -2448,26 +2453,26 @@
         <v>22</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.8" thickBot="1">
+    <row r="43" spans="1:8" ht="45.75" thickBot="1">
       <c r="A43" s="30"/>
       <c r="D43" s="7"/>
       <c r="F43" t="s">
         <v>24</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="30"/>
       <c r="B44" t="s">
         <v>67</v>
@@ -2486,13 +2491,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="30"/>
       <c r="B45" t="s">
         <v>69</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>44</v>
@@ -2510,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="30"/>
       <c r="D46" s="7"/>
       <c r="F46" t="s">
@@ -2523,7 +2528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1">
+    <row r="47" spans="1:8" ht="15.75" thickBot="1">
       <c r="A47" s="30"/>
       <c r="B47" t="s">
         <v>71</v>
@@ -2544,7 +2549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1">
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
       <c r="A48" s="30"/>
       <c r="D48" s="7"/>
       <c r="F48" t="s">
@@ -2557,7 +2562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="30"/>
       <c r="D49" s="7"/>
       <c r="F49" t="s">
@@ -2570,7 +2575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="30"/>
       <c r="D50" s="7"/>
       <c r="F50" t="s">
@@ -2583,7 +2588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="30"/>
       <c r="B51" t="s">
         <v>72</v>
@@ -2604,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="30"/>
       <c r="D52" s="7"/>
       <c r="F52" t="s">
@@ -2617,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="30"/>
       <c r="B53" t="s">
         <v>74</v>
@@ -2638,7 +2643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="30"/>
       <c r="D54" s="7"/>
       <c r="F54" t="s">
@@ -2651,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="30"/>
       <c r="B55" t="s">
         <v>76</v>
@@ -2672,7 +2677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="30"/>
       <c r="D56" s="7"/>
       <c r="F56" t="s">
@@ -2685,7 +2690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="30"/>
       <c r="D57" s="7"/>
       <c r="F57" t="s">
@@ -2698,7 +2703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="30"/>
       <c r="B58" t="s">
         <v>77</v>
@@ -2719,7 +2724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="30"/>
       <c r="D59" s="7"/>
       <c r="F59" t="s">
@@ -2732,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="30"/>
       <c r="B60" t="s">
         <v>78</v>
@@ -2753,7 +2758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="30"/>
       <c r="D61" s="7"/>
       <c r="F61" t="s">
@@ -2766,7 +2771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="30"/>
       <c r="B62" t="s">
         <v>79</v>
@@ -2787,7 +2792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1">
+    <row r="63" spans="1:8" ht="15.75" thickBot="1">
       <c r="A63" s="30"/>
       <c r="C63" s="8"/>
       <c r="D63" s="7"/>
@@ -2801,7 +2806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" thickBot="1">
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
       <c r="A64" s="29"/>
       <c r="B64" t="s">
         <v>80</v>
@@ -2822,7 +2827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" thickBot="1">
+    <row r="65" spans="1:8" ht="15.75" thickBot="1">
       <c r="A65" s="30"/>
       <c r="D65" s="7"/>
       <c r="F65" t="s">
@@ -2835,16 +2840,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="30"/>
       <c r="B66" t="s">
         <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E66" s="32" t="s">
         <v>3</v>
@@ -2859,7 +2864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="30"/>
       <c r="D67" s="7"/>
       <c r="F67" t="s">
@@ -2872,7 +2877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="30"/>
       <c r="B68" t="s">
         <v>82</v>
@@ -2893,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1">
+    <row r="69" spans="1:8" ht="15.75" thickBot="1">
       <c r="A69" s="30"/>
       <c r="D69" s="7"/>
       <c r="F69" t="s">
@@ -2906,7 +2911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="30"/>
       <c r="B70" t="s">
         <v>83</v>
@@ -2938,22 +2943,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="H72" s="2">
         <v>27</v>
@@ -2975,10 +2980,10 @@
     <row r="74" spans="1:8">
       <c r="A74" s="30"/>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -3009,10 +3014,10 @@
     <row r="76" spans="1:8">
       <c r="A76" s="30"/>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -3043,10 +3048,10 @@
     <row r="78" spans="1:8">
       <c r="A78" s="30"/>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -3077,10 +3082,10 @@
     <row r="80" spans="1:8">
       <c r="A80" s="30"/>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -3096,10 +3101,10 @@
     <row r="81" spans="1:8">
       <c r="A81" s="30"/>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -3147,7 +3152,7 @@
         <v>37</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H84" s="2">
         <v>32</v>
@@ -3156,19 +3161,19 @@
     <row r="85" spans="1:8">
       <c r="A85" s="30"/>
       <c r="B85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>22</v>
+      </c>
+      <c r="G85" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="H85" s="2">
         <v>33</v>
@@ -3181,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H86" s="2">
         <v>33</v>
@@ -3190,10 +3195,10 @@
     <row r="87" spans="1:8">
       <c r="A87" s="30"/>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -3224,19 +3229,19 @@
     <row r="89" spans="1:8">
       <c r="A89" s="30"/>
       <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>146</v>
       </c>
       <c r="H89" s="2">
         <v>35</v>
@@ -3249,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="G90" s="22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H90" s="2">
         <v>35</v>
@@ -3262,16 +3267,16 @@
         <v>30</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H91" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="28.8">
+    <row r="92" spans="1:8" ht="30">
       <c r="A92" s="30"/>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>48</v>
@@ -3283,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H92" s="2">
         <v>36</v>
@@ -3296,20 +3301,20 @@
         <v>24</v>
       </c>
       <c r="G93" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H93" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28.8">
+    <row r="94" spans="1:8" ht="30">
       <c r="A94" s="30"/>
       <c r="D94" s="9"/>
       <c r="F94" t="s">
         <v>30</v>
       </c>
       <c r="G94" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H94" s="2">
         <v>36</v>
@@ -3318,10 +3323,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="30"/>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -3352,10 +3357,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="30"/>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -3386,10 +3391,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="30"/>
       <c r="B99" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -3420,10 +3425,10 @@
     <row r="101" spans="1:8">
       <c r="A101" s="30"/>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -3449,13 +3454,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="B103" t="s">
-        <v>162</v>
-      </c>
-      <c r="D103" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -3486,10 +3491,10 @@
     <row r="105" spans="1:8">
       <c r="A105" s="30"/>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -3520,19 +3525,19 @@
     <row r="107" spans="1:8">
       <c r="A107" s="30"/>
       <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>166</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="H107" s="2">
         <v>43</v>
@@ -3545,7 +3550,7 @@
         <v>24</v>
       </c>
       <c r="G108" s="22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H108" s="2">
         <v>43</v>
@@ -3558,7 +3563,7 @@
         <v>30</v>
       </c>
       <c r="G109" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H109" s="2">
         <v>43</v>
@@ -3571,7 +3576,7 @@
         <v>37</v>
       </c>
       <c r="G110" s="22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H110" s="2">
         <v>43</v>
@@ -3584,7 +3589,7 @@
         <v>84</v>
       </c>
       <c r="G111" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H111" s="2">
         <v>43</v>
@@ -3597,7 +3602,7 @@
         <v>85</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H112" s="2">
         <v>43</v>
@@ -3610,7 +3615,7 @@
         <v>86</v>
       </c>
       <c r="G113" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H113" s="2">
         <v>43</v>
@@ -3623,7 +3628,7 @@
         <v>87</v>
       </c>
       <c r="G114" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H114" s="2">
         <v>43</v>
@@ -3633,10 +3638,10 @@
       <c r="A115" s="30"/>
       <c r="D115" s="13"/>
       <c r="F115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H115" s="2">
         <v>43</v>
@@ -3645,19 +3650,19 @@
     <row r="116" spans="1:8">
       <c r="A116" s="30"/>
       <c r="B116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="H116" s="2">
         <v>44</v>
@@ -3679,19 +3684,19 @@
     <row r="118" spans="1:8">
       <c r="A118" s="30"/>
       <c r="B118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" s="22" t="s">
         <v>181</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" s="22" t="s">
-        <v>183</v>
       </c>
       <c r="H118" s="2">
         <v>45</v>
@@ -3704,7 +3709,7 @@
         <v>24</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H119" s="2">
         <v>45</v>
@@ -3717,7 +3722,7 @@
         <v>30</v>
       </c>
       <c r="G120" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H120" s="2">
         <v>45</v>
@@ -3726,10 +3731,10 @@
     <row r="121" spans="1:8">
       <c r="A121" s="30"/>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -3760,10 +3765,10 @@
     <row r="123" spans="1:8">
       <c r="A123" s="30"/>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -3794,10 +3799,10 @@
     <row r="125" spans="1:8">
       <c r="A125" s="29"/>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -3828,10 +3833,10 @@
     <row r="127" spans="1:8">
       <c r="A127" s="30"/>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -3862,10 +3867,10 @@
     <row r="129" spans="1:8">
       <c r="A129" s="30"/>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -3896,10 +3901,10 @@
     <row r="131" spans="1:8">
       <c r="A131" s="30"/>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3930,10 +3935,10 @@
     <row r="133" spans="1:8">
       <c r="A133" s="30"/>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -3964,10 +3969,10 @@
     <row r="135" spans="1:8">
       <c r="A135" s="30"/>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -3998,10 +4003,10 @@
     <row r="137" spans="1:8">
       <c r="A137" s="30"/>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -4027,13 +4032,13 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>201</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="B139" t="s">
-        <v>203</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -4064,10 +4069,10 @@
     <row r="141" spans="1:8">
       <c r="A141" s="30"/>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -4098,19 +4103,19 @@
     <row r="143" spans="1:8">
       <c r="A143" s="30"/>
       <c r="B143" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143" t="s">
+        <v>5</v>
+      </c>
+      <c r="F143" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="22" t="s">
         <v>207</v>
-      </c>
-      <c r="D143" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="H143" s="2">
         <v>57</v>
@@ -4123,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="G144" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H144" s="2">
         <v>57</v>
@@ -4136,7 +4141,7 @@
         <v>30</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H145" s="2">
         <v>57</v>
@@ -4149,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H146" s="2">
         <v>57</v>
@@ -4158,10 +4163,10 @@
     <row r="147" spans="1:8">
       <c r="A147" s="30"/>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -4192,10 +4197,10 @@
     <row r="149" spans="1:8">
       <c r="A149" s="29"/>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -4226,19 +4231,19 @@
     <row r="151" spans="1:8">
       <c r="A151" s="30"/>
       <c r="B151" t="s">
+        <v>215</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E151" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" s="22" t="s">
-        <v>219</v>
       </c>
       <c r="H151" s="2"/>
     </row>
@@ -4249,7 +4254,7 @@
         <v>24</v>
       </c>
       <c r="G152" s="22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H152" s="2"/>
     </row>
@@ -4260,19 +4265,19 @@
         <v>30</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B154" t="s">
+        <v>221</v>
+      </c>
+      <c r="D154" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="B154" t="s">
-        <v>223</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>224</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -4303,10 +4308,10 @@
     <row r="156" spans="1:8">
       <c r="A156" s="30"/>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -4315,7 +4320,7 @@
         <v>22</v>
       </c>
       <c r="G156" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H156" s="2">
         <v>62</v>
@@ -4337,10 +4342,10 @@
     <row r="158" spans="1:8">
       <c r="A158" s="30"/>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -4371,10 +4376,10 @@
     <row r="160" spans="1:8">
       <c r="A160" s="30"/>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -4405,7 +4410,7 @@
     <row r="162" spans="1:8">
       <c r="A162" s="30"/>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D162" s="15" t="s">
         <v>66</v>
@@ -4439,10 +4444,10 @@
     <row r="164" spans="1:8">
       <c r="A164" s="30"/>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -4473,10 +4478,10 @@
     <row r="166" spans="1:8">
       <c r="A166" s="30"/>
       <c r="B166" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -4507,10 +4512,10 @@
     <row r="168" spans="1:8">
       <c r="A168" s="30"/>
       <c r="B168" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -4541,10 +4546,10 @@
     <row r="170" spans="1:8">
       <c r="A170" s="30"/>
       <c r="B170" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -4575,10 +4580,10 @@
     <row r="172" spans="1:8">
       <c r="A172" s="29"/>
       <c r="B172" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -4609,10 +4614,10 @@
     <row r="174" spans="1:8">
       <c r="A174" s="30"/>
       <c r="B174" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D174" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -4643,10 +4648,10 @@
     <row r="176" spans="1:8">
       <c r="A176" s="30"/>
       <c r="B176" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -4677,10 +4682,10 @@
     <row r="178" spans="1:8">
       <c r="A178" s="30"/>
       <c r="B178" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -4711,10 +4716,10 @@
     <row r="180" spans="1:8">
       <c r="A180" s="30"/>
       <c r="B180" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -4745,10 +4750,10 @@
     <row r="182" spans="1:8">
       <c r="A182" s="30"/>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -4774,13 +4779,13 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B184" t="s">
+        <v>251</v>
+      </c>
+      <c r="D184" s="16" t="s">
         <v>252</v>
-      </c>
-      <c r="B184" t="s">
-        <v>253</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -4811,19 +4816,19 @@
     <row r="186" spans="1:8">
       <c r="A186" s="30"/>
       <c r="B186" t="s">
+        <v>253</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E186" t="s">
+        <v>5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G186" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="E186" t="s">
-        <v>5</v>
-      </c>
-      <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" s="22" t="s">
-        <v>257</v>
       </c>
       <c r="H186" s="2">
         <v>77</v>
@@ -4836,7 +4841,7 @@
         <v>24</v>
       </c>
       <c r="G187" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H187" s="2">
         <v>77</v>
@@ -4845,10 +4850,10 @@
     <row r="188" spans="1:8">
       <c r="A188" s="30"/>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -4879,10 +4884,10 @@
     <row r="190" spans="1:8">
       <c r="A190" s="30"/>
       <c r="B190" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D190" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -4891,7 +4896,7 @@
         <v>22</v>
       </c>
       <c r="G190" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H190" s="2">
         <v>79</v>
@@ -4913,19 +4918,19 @@
     <row r="192" spans="1:8">
       <c r="A192" s="30"/>
       <c r="B192" t="s">
+        <v>261</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="E192" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" t="s">
+        <v>22</v>
+      </c>
+      <c r="G192" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E192" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" t="s">
-        <v>22</v>
-      </c>
-      <c r="G192" s="22" t="s">
-        <v>265</v>
       </c>
       <c r="H192" s="2">
         <v>80</v>
@@ -4938,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="G193" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H193" s="2">
         <v>80</v>
@@ -4947,10 +4952,10 @@
     <row r="194" spans="1:8">
       <c r="A194" s="30"/>
       <c r="B194" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D194" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -4981,10 +4986,10 @@
     <row r="196" spans="1:8">
       <c r="A196" s="30"/>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D196" s="16" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -5004,19 +5009,19 @@
         <v>24</v>
       </c>
       <c r="G197" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B198" t="s">
+        <v>270</v>
+      </c>
+      <c r="D198" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B198" t="s">
-        <v>272</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>273</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -5047,19 +5052,19 @@
     <row r="200" spans="1:8">
       <c r="A200" s="30"/>
       <c r="B200" t="s">
+        <v>272</v>
+      </c>
+      <c r="D200" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E200" t="s">
+        <v>5</v>
+      </c>
+      <c r="F200" t="s">
+        <v>22</v>
+      </c>
+      <c r="G200" s="27" t="s">
         <v>274</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="E200" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" t="s">
-        <v>22</v>
-      </c>
-      <c r="G200" s="27" t="s">
-        <v>276</v>
       </c>
       <c r="H200" s="2">
         <v>84</v>
@@ -5072,7 +5077,7 @@
         <v>24</v>
       </c>
       <c r="G201" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H201" s="2">
         <v>84</v>
@@ -5081,10 +5086,10 @@
     <row r="202" spans="1:8">
       <c r="A202" s="29"/>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -5093,7 +5098,7 @@
         <v>22</v>
       </c>
       <c r="G202" s="22" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H202" s="2">
         <v>85</v>
@@ -5106,7 +5111,7 @@
         <v>24</v>
       </c>
       <c r="G203" s="22" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H203" s="2">
         <v>85</v>
@@ -5115,10 +5120,10 @@
     <row r="204" spans="1:8">
       <c r="A204" s="30"/>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -5149,10 +5154,10 @@
     <row r="206" spans="1:8">
       <c r="A206" s="30"/>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -5161,7 +5166,7 @@
         <v>22</v>
       </c>
       <c r="G206" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H206" s="2">
         <v>87</v>
@@ -5183,10 +5188,10 @@
     <row r="208" spans="1:8">
       <c r="A208" s="30"/>
       <c r="B208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -5195,7 +5200,7 @@
         <v>22</v>
       </c>
       <c r="G208" s="22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H208" s="2">
         <v>88</v>
@@ -5208,7 +5213,7 @@
         <v>24</v>
       </c>
       <c r="G209" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H209" s="2">
         <v>88</v>
@@ -5217,10 +5222,10 @@
     <row r="210" spans="1:8">
       <c r="A210" s="30"/>
       <c r="B210" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -5251,10 +5256,10 @@
     <row r="212" spans="1:8">
       <c r="A212" s="30"/>
       <c r="B212" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -5280,13 +5285,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B214" t="s">
+        <v>283</v>
+      </c>
+      <c r="D214" s="18" t="s">
         <v>284</v>
-      </c>
-      <c r="B214" t="s">
-        <v>285</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -5317,10 +5322,10 @@
     <row r="216" spans="1:8">
       <c r="A216" s="30"/>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -5351,10 +5356,10 @@
     <row r="218" spans="1:8">
       <c r="A218" s="30"/>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D218" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -5385,10 +5390,10 @@
     <row r="220" spans="1:8">
       <c r="A220" s="30"/>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D220" s="18" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -5397,7 +5402,7 @@
         <v>22</v>
       </c>
       <c r="G220" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H220" s="2">
         <v>94</v>
@@ -5419,10 +5424,10 @@
     <row r="222" spans="1:8">
       <c r="A222" s="30"/>
       <c r="B222" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D222" s="18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -5453,19 +5458,19 @@
     <row r="224" spans="1:8">
       <c r="A224" s="30"/>
       <c r="B224" t="s">
+        <v>292</v>
+      </c>
+      <c r="D224" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="E224" t="s">
+        <v>5</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" s="22" t="s">
         <v>294</v>
-      </c>
-      <c r="D224" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E224" t="s">
-        <v>5</v>
-      </c>
-      <c r="F224" t="s">
-        <v>22</v>
-      </c>
-      <c r="G224" s="22" t="s">
-        <v>296</v>
       </c>
       <c r="H224" s="2">
         <v>96</v>
@@ -5478,7 +5483,7 @@
         <v>24</v>
       </c>
       <c r="G225" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H225" s="2">
         <v>96</v>
@@ -5491,7 +5496,7 @@
         <v>30</v>
       </c>
       <c r="G226" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H226" s="2">
         <v>96</v>
@@ -5504,7 +5509,7 @@
         <v>37</v>
       </c>
       <c r="G227" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H227" s="2">
         <v>96</v>
@@ -5513,10 +5518,10 @@
     <row r="228" spans="1:8">
       <c r="A228" s="30"/>
       <c r="B228" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D228" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -5547,10 +5552,10 @@
     <row r="230" spans="1:8">
       <c r="A230" s="30"/>
       <c r="B230" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D230" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -5581,10 +5586,10 @@
     <row r="232" spans="1:8">
       <c r="A232" s="30"/>
       <c r="B232" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D232" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -5615,10 +5620,10 @@
     <row r="234" spans="1:8">
       <c r="A234" s="30"/>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D234" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -5649,10 +5654,10 @@
     <row r="236" spans="1:8">
       <c r="A236" s="30"/>
       <c r="B236" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D236" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -5683,10 +5688,10 @@
     <row r="238" spans="1:8">
       <c r="A238" s="30"/>
       <c r="B238" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D238" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -5717,10 +5722,10 @@
     <row r="240" spans="1:8">
       <c r="A240" s="30"/>
       <c r="B240" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D240" s="18" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -5751,10 +5756,10 @@
     <row r="242" spans="1:8">
       <c r="A242" s="30"/>
       <c r="B242" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D242" s="18" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -5785,10 +5790,10 @@
     <row r="244" spans="1:8">
       <c r="A244" s="30"/>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D244" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -5814,13 +5819,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B246" t="s">
+        <v>316</v>
+      </c>
+      <c r="D246" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="B246" t="s">
-        <v>318</v>
-      </c>
-      <c r="D246" s="19" t="s">
-        <v>319</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -5851,10 +5856,10 @@
     <row r="248" spans="1:8">
       <c r="A248" s="30"/>
       <c r="B248" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D248" s="19" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -5885,10 +5890,10 @@
     <row r="250" spans="1:8">
       <c r="A250" s="30"/>
       <c r="B250" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D250" s="19" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -5919,10 +5924,10 @@
     <row r="252" spans="1:8">
       <c r="A252" s="30"/>
       <c r="B252" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D252" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>

--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -1855,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>

--- a/media/read_sheets/read.xlsx
+++ b/media/read_sheets/read.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="326">
   <si>
     <t>No response</t>
   </si>
@@ -1855,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
